--- a/Datos/Anuario2024/030607_ParadasTaxi.xlsx
+++ b/Datos/Anuario2024/030607_ParadasTaxi.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 map1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="94" r:id="rId1"/>
+    <sheet name="1" sheetId="95" r:id="rId2"/>
+    <sheet name="1 map1" sheetId="96" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -77,84 +83,175 @@
     <definedName name="p">'[2]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[2]4.17'!$A$1:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId131" roundtripDataSignature="AMtx7mjoholsyV4wm7X8410XmcGaQJqvwA=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ciutat Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. l'Eixample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Extramurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. la Saïdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6. el Pla del Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7. l'Olivereta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8. Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9. Jesús</t>
+  </si>
+  <si>
+    <t>10. Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11. Poblats Marítims</t>
+  </si>
+  <si>
+    <t>12. Camins al Grau</t>
+  </si>
+  <si>
+    <t>13. Algirós</t>
+  </si>
+  <si>
+    <t>14. Benimaclet</t>
+  </si>
+  <si>
+    <t>15. Rascanya</t>
+  </si>
+  <si>
+    <t>16. Benicalap</t>
+  </si>
+  <si>
+    <t>17. Pobles del Nord</t>
+  </si>
+  <si>
+    <t>18. Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t>19. Pobles del Sud</t>
+  </si>
+  <si>
+    <t>Paradas</t>
+  </si>
+  <si>
+    <t>Taxis asignados</t>
+  </si>
+  <si>
+    <t>Paradas por 10.000 habitantes</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València</t>
+  </si>
+  <si>
+    <t>PARADAS DE TAXI</t>
+  </si>
+  <si>
+    <t>1. Paradas y número de taxis asignados por distrito. 2024</t>
+  </si>
+  <si>
+    <t>Nota: El número de taxis por parada es aproximado y se ha calculado según la longitud de la parada. Población a 1/1/2024</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FFB2B2B2"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FFB2B2B2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -196,129 +293,119 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190499"/>
+          <a:ext cx="6086474" cy="6086475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -12006,7 +12093,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -15801,8 +15888,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -16709,476 +16796,399 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="inlineStr">
-        <is>
-          <t>PARADAS DE TAXI</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="16" t="n"/>
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="18.5703125" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" customWidth="1" min="2" max="4"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="inlineStr">
-        <is>
-          <t>1. Paradas y número de taxis asignados por distrito. 2024</t>
-        </is>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>25</v>
       </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="14" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
-    <row r="3" ht="45" customHeight="1">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Paradas</t>
-        </is>
+    <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Taxis asignados</t>
-        </is>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
       </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>Paradas por 10.000 habitantes</t>
-        </is>
+      <c r="D3" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="9" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="10">
         <v>240</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="10">
         <v>1654</v>
       </c>
-      <c r="D4" s="17" t="n">
-        <v>2.889456613605006</v>
+      <c r="D4" s="17">
+        <v>2.8894566136050064</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>1</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="12">
         <v>16</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="12">
         <v>108</v>
       </c>
-      <c r="D5" s="18" t="n">
-        <v>5.332977801479902</v>
+      <c r="D5" s="18">
+        <v>5.3329778014799016</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>2</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>38</v>
       </c>
-      <c r="D6" s="19" t="n">
-        <v>2.016535591853196</v>
+      <c r="D6" s="19">
+        <v>2.0165355918531964</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>3</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="12">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="12">
         <v>45</v>
       </c>
-      <c r="D7" s="18" t="n">
-        <v>1.184763935785795</v>
+      <c r="D7" s="18">
+        <v>1.1847639357857946</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>4</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>159</v>
       </c>
-      <c r="D8" s="19" t="n">
-        <v>3.421560720482929</v>
+      <c r="D8" s="19">
+        <v>3.4215607204829288</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>5</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="12">
         <v>3</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="12">
         <v>16</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="18">
         <v>0.6200524977781452</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>6</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>48</v>
       </c>
-      <c r="D10" s="19" t="n">
-        <v>2.578981302385558</v>
+      <c r="D10" s="19">
+        <v>2.5789813023855577</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>7</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="12">
         <v>5</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="12">
         <v>45</v>
       </c>
-      <c r="D11" s="18" t="n">
-        <v>0.9713641838598127</v>
+      <c r="D11" s="18">
+        <v>0.97136418385981271</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>8</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>38</v>
       </c>
-      <c r="D12" s="19" t="n">
-        <v>1.178114007775553</v>
+      <c r="D12" s="19">
+        <v>1.1781140077755525</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>9</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="12">
         <v>5</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="12">
         <v>25</v>
       </c>
-      <c r="D13" s="18" t="n">
-        <v>0.9331491918927998</v>
+      <c r="D13" s="18">
+        <v>0.93314919189279977</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="20" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="n">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5">
         <v>83</v>
       </c>
-      <c r="D14" s="19" t="n">
-        <v>1.245857523733586</v>
+      <c r="D14" s="19">
+        <v>1.2458575237335858</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="21" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="12" t="n">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="12" t="n">
+      <c r="B15" s="12">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12">
         <v>61</v>
       </c>
-      <c r="D15" s="18" t="n">
-        <v>1.935154724416375</v>
+      <c r="D15" s="18">
+        <v>1.9351547244163749</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="20" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>12</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="5">
         <v>8</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="5">
         <v>42</v>
       </c>
-      <c r="D16" s="19" t="n">
-        <v>1.186011000252027</v>
+      <c r="D16" s="19">
+        <v>1.1860110002520274</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="21" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>13</v>
       </c>
-      <c r="B17" s="12" t="n">
+      <c r="B17" s="12">
         <v>4</v>
       </c>
-      <c r="C17" s="12" t="n">
+      <c r="C17" s="12">
         <v>16</v>
       </c>
-      <c r="D17" s="18" t="n">
-        <v>1.10296145149727</v>
+      <c r="D17" s="18">
+        <v>1.1029614514972701</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="20" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>14</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="5">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="5">
         <v>9</v>
       </c>
-      <c r="D18" s="19" t="n">
-        <v>0.3503731474019831</v>
+      <c r="D18" s="19">
+        <v>0.35037314740198311</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="21" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>15</v>
       </c>
-      <c r="B19" s="12" t="n">
+      <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C19" s="12" t="n">
+      <c r="C19" s="12">
         <v>23</v>
       </c>
-      <c r="D19" s="18" t="n">
-        <v>0.7054300477928858</v>
+      <c r="D19" s="18">
+        <v>0.70543004779288576</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="20" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>16</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="5">
         <v>4</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="5">
         <v>45</v>
       </c>
-      <c r="D20" s="19" t="n">
-        <v>0.7975753708725475</v>
+      <c r="D20" s="19">
+        <v>0.79757537087254748</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="21" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>17</v>
       </c>
-      <c r="B21" s="15" t="n">
+      <c r="B21" s="15">
         <v>0</v>
       </c>
-      <c r="C21" s="15" t="n">
+      <c r="C21" s="15">
         <v>0</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="20" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>18</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="5">
         <v>3</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="5">
         <v>21</v>
       </c>
-      <c r="D22" s="13" t="n">
-        <v>1.965795164143896</v>
+      <c r="D22" s="13">
+        <v>1.9657951641438962</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="21" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>19</v>
       </c>
-      <c r="B23" s="12" t="n">
+      <c r="B23" s="12">
         <v>2</v>
       </c>
-      <c r="C23" s="12" t="n">
+      <c r="C23" s="12">
         <v>5</v>
       </c>
-      <c r="D23" s="6" t="n">
-        <v>0.9073175157646418</v>
+      <c r="D23" s="6">
+        <v>0.90731751576464181</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>Nota: El número de taxis por parada es aproximado y se ha calculado según la longitud de la parada. Población a 1/1/2024</t>
-        </is>
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>26</v>
       </c>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Movilidad Sostenible. Ayuntamiento de València</t>
-        </is>
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="C26" s="11" t="n"/>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="11"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="B31" s="11" t="n"/>
-      <c r="C31" s="11" t="n"/>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>